--- a/document/test/テスト仕様書【コンビニ商品管理システム】_フォーマット.xlsx
+++ b/document/test/テスト仕様書【コンビニ商品管理システム】_フォーマット.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bp.midorikawa.hikaru\Documents\svn\Convenience-store-Product-Management-System\document\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="9675" windowHeight="4665" tabRatio="780"/>
   </bookViews>
@@ -18,12 +23,15 @@
     <sheet name="確認用ＳＱＬ" sheetId="11" r:id="rId9"/>
     <sheet name="テスト実施状況" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <externalReferences>
+    <externalReference r:id="rId11"/>
+  </externalReferences>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="432">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -3995,10 +4003,6 @@
     <rPh sb="2" eb="4">
       <t>ジョウキョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4786,11 +4790,68 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>未完了</t>
+    <rPh sb="0" eb="3">
+      <t>ミカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再テスト済み</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目数</t>
+    <rPh sb="0" eb="3">
+      <t>コウモクスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象外</t>
+    <rPh sb="0" eb="3">
+      <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再試験OK</t>
+    <rPh sb="0" eb="3">
+      <t>サイシケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再試験NG</t>
+    <rPh sb="0" eb="3">
+      <t>サイシケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4892,7 +4953,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4913,6 +4974,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5257,7 +5324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5666,18 +5733,12 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5690,6 +5751,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5771,44 +5838,59 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5826,12 +5908,94 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="ログイン画面"/>
+      <sheetName val="メニュー画面"/>
+      <sheetName val="在庫一覧画面"/>
+      <sheetName val="商品登録画面"/>
+      <sheetName val="商品編集画面"/>
+      <sheetName val="ユーザー一覧画面"/>
+      <sheetName val="ユーザー登録画面"/>
+      <sheetName val="ユーザー編集画面"/>
+      <sheetName val="確認用ＳＱＬ"/>
+      <sheetName val="テスト実施状況"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="I1" t="str">
+            <v>テスト完了</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="I1" t="str">
+            <v>テスト完了</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="I1" t="str">
+            <v>テスト完了</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="I1" t="str">
+            <v>テスト完了</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="I1" t="str">
+            <v>テスト完了</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="I1" t="str">
+            <v>テスト完了</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="1">
+          <cell r="I1" t="str">
+            <v>テスト完了</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="I1" t="str">
+            <v>テスト完了</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5873,7 +6037,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5908,7 +6072,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6156,18 +6320,32 @@
         <v>374</v>
       </c>
       <c r="H1" s="128">
-        <f>COUNTA(G4:G15)</f>
+        <f>COUNTIF($G$4:$G500,"OK")+COUNTIF($G$4:$G500,"NG")+COUNTIF($G$4:$G500,"対象外")</f>
         <v>0</v>
       </c>
       <c r="I1" s="130" t="str">
-        <f>IF(H1=12,"テスト完了","テスト漏れ")</f>
+        <f>IF($H$1=MAX($A$4:A500),"テスト完了","テスト漏れ")</f>
         <v>テスト漏れ</v>
       </c>
       <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
+      <c r="K1" s="72" t="s">
+        <v>423</v>
+      </c>
+      <c r="L1" s="128">
+        <f>COUNTIF($G$4:G500,"NG")</f>
+        <v>0</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>424</v>
+      </c>
+      <c r="N1" s="128">
+        <f>COUNTIF($K$4:$K500,"OK")+COUNTIF($K$4:$K500,"NG")+COUNTIF($K$4:$K500,"対象外")</f>
+        <v>0</v>
+      </c>
+      <c r="O1" s="182" t="str">
+        <f>IF($L$1=$N$1,"テスト完了","テスト漏れ")</f>
+        <v>テスト完了</v>
+      </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -6618,7 +6796,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6628,140 +6806,361 @@
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="138" t="s">
         <v>258</v>
       </c>
       <c r="B1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="179" t="s">
+      <c r="C1" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="180"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="D1" s="181"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="131" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B3" s="132" t="s">
-        <v>376</v>
-      </c>
-      <c r="C3" s="133" t="s">
+        <v>429</v>
+      </c>
+      <c r="C3" s="132" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D3" s="132" t="s">
+        <v>425</v>
+      </c>
+      <c r="E3" s="132" t="s">
+        <v>430</v>
+      </c>
+      <c r="F3" s="132" t="s">
+        <v>431</v>
+      </c>
+      <c r="G3" s="132" t="s">
+        <v>426</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>427</v>
+      </c>
+      <c r="I3" s="133" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="134">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="135" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" s="183" t="str">
+        <f>[1]ログイン画面!I1</f>
+        <v>テスト完了</v>
+      </c>
+      <c r="D4" s="184">
+        <f ca="1">MAX(INDIRECT($B4&amp;"!$A$4:$A500"))</f>
+        <v>12</v>
+      </c>
+      <c r="E4" s="184">
+        <f ca="1">COUNTIF(INDIRECT($B4&amp;"!$G$4:$G500"),"OK")</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="184">
+        <f ca="1">COUNTIF(INDIRECT($B4&amp;"!$G$4:$G500"),"NG")</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="184">
+        <f ca="1">COUNTIF(INDIRECT($B4&amp;"!$G$4:$G500"),"対象外")</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="184">
+        <f ca="1">COUNTIF(INDIRECT($B4&amp;"!$K$4:$K500"),"OK")</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="185">
+        <f ca="1">COUNTIF(INDIRECT($B4&amp;"!$K$4:$K500"),"NG")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="134">
+        <f t="shared" ref="A5:A11" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="135" t="s">
         <v>340</v>
       </c>
-      <c r="C4" s="136" t="str">
-        <f>メニュー画面!I1</f>
-        <v>テスト漏れ</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="134">
-        <f t="shared" ref="A5:A10" si="0">ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="135" t="s">
+      <c r="C5" s="183" t="str">
+        <f>[1]メニュー画面!I1</f>
+        <v>テスト完了</v>
+      </c>
+      <c r="D5" s="184">
+        <f t="shared" ref="D5:D11" ca="1" si="1">MAX(INDIRECT($B5&amp;"!$A$4:$A500"))</f>
+        <v>9</v>
+      </c>
+      <c r="E5" s="184">
+        <f t="shared" ref="E5:E11" ca="1" si="2">COUNTIF(INDIRECT($B5&amp;"!$G$4:$G500"),"OK")</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="184">
+        <f t="shared" ref="F5:F11" ca="1" si="3">COUNTIF(INDIRECT($B5&amp;"!$G$4:$G500"),"NG")</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="184">
+        <f t="shared" ref="G5:G11" ca="1" si="4">COUNTIF(INDIRECT($B5&amp;"!$G$4:$G500"),"対象外")</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="184">
+        <f t="shared" ref="H5:H11" ca="1" si="5">COUNTIF(INDIRECT($B5&amp;"!$K$4:$K500"),"OK")</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="185">
+        <f t="shared" ref="I5:I11" ca="1" si="6">COUNTIF(INDIRECT($B5&amp;"!$K$4:$K500"),"NG")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="134">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="135" t="s">
         <v>305</v>
       </c>
-      <c r="C5" s="136" t="str">
-        <f>在庫一覧画面!I1</f>
-        <v>テスト漏れ</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="134">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B6" s="135" t="s">
+      <c r="C6" s="183" t="str">
+        <f>[1]在庫一覧画面!I1</f>
+        <v>テスト完了</v>
+      </c>
+      <c r="D6" s="184">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="E6" s="184">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="184">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="184">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="184">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="185">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="134">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="135" t="s">
         <v>370</v>
       </c>
-      <c r="C6" s="136" t="str">
-        <f>商品登録画面!I1</f>
-        <v>テスト漏れ</v>
-      </c>
-      <c r="D6" s="124"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="134">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="135" t="s">
+      <c r="C7" s="183" t="str">
+        <f>[1]商品登録画面!I1</f>
+        <v>テスト完了</v>
+      </c>
+      <c r="D7" s="184">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="E7" s="184">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="184">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="184">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="184">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="185">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="134">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="135" t="s">
         <v>371</v>
       </c>
-      <c r="C7" s="136" t="str">
-        <f>商品編集画面!I1</f>
-        <v>テスト漏れ</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="134">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="135" t="s">
+      <c r="C8" s="183" t="str">
+        <f>[1]商品編集画面!I1</f>
+        <v>テスト完了</v>
+      </c>
+      <c r="D8" s="184">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="E8" s="184">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="184">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="184">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="184">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="185">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="134">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="135" t="s">
         <v>315</v>
       </c>
-      <c r="C8" s="136" t="str">
-        <f>ユーザー一覧画面!I1</f>
-        <v>テスト漏れ</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="134">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="135" t="s">
+      <c r="C9" s="183" t="str">
+        <f>[1]ユーザー一覧画面!I1</f>
+        <v>テスト完了</v>
+      </c>
+      <c r="D9" s="184">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="E9" s="184">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="184">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="184">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="184">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="185">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="134">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="135" t="s">
         <v>345</v>
       </c>
-      <c r="C9" s="136" t="str">
-        <f>ユーザー登録画面!I1</f>
-        <v>テスト漏れ</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="137">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="138" t="s">
+      <c r="C10" s="183" t="str">
+        <f>[1]ユーザー登録画面!I1</f>
+        <v>テスト完了</v>
+      </c>
+      <c r="D10" s="184">
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E10" s="184">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="184">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="184">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="184">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="185">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="136">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="137" t="s">
         <v>346</v>
       </c>
-      <c r="C10" s="139" t="str">
-        <f>ユーザー編集画面!I1</f>
-        <v>テスト漏れ</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="124"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C11" s="186" t="str">
+        <f>[1]ユーザー編集画面!I1</f>
+        <v>テスト完了</v>
+      </c>
+      <c r="D11" s="187">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="E11" s="187">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="187">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="187">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="187">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="188">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="124"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="124"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="124"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="124"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="124"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
@@ -6912,18 +7311,32 @@
         <v>374</v>
       </c>
       <c r="H1" s="128">
-        <f>COUNTA(G4:G12)</f>
+        <f>COUNTIF($G$4:$G500,"OK")+COUNTIF($G$4:$G500,"NG")+COUNTIF($G$4:$G500,"対象外")</f>
         <v>0</v>
       </c>
       <c r="I1" s="130" t="str">
-        <f>IF(H1=9,"テスト完了","テスト漏れ")</f>
+        <f>IF($H$1=MAX($A$4:A500),"テスト完了","テスト漏れ")</f>
         <v>テスト漏れ</v>
       </c>
       <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
+      <c r="K1" s="72" t="s">
+        <v>423</v>
+      </c>
+      <c r="L1" s="128">
+        <f>COUNTIF($G$4:G500,"NG")</f>
+        <v>0</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>424</v>
+      </c>
+      <c r="N1" s="128">
+        <f>COUNTIF($K$4:$K500,"OK")+COUNTIF($K$4:$K500,"NG")+COUNTIF($K$4:$K500,"対象外")</f>
+        <v>0</v>
+      </c>
+      <c r="O1" s="182" t="str">
+        <f>IF($L$1=$N$1,"テスト完了","テスト漏れ")</f>
+        <v>テスト完了</v>
+      </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -7071,7 +7484,7 @@
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
       <c r="O6" s="54" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -7101,7 +7514,7 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="54" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7324,18 +7737,32 @@
         <v>374</v>
       </c>
       <c r="H1" s="128">
-        <f>COUNTA(G4:G26)</f>
+        <f>COUNTIF($G$4:$G500,"OK")+COUNTIF($G$4:$G500,"NG")+COUNTIF($G$4:$G500,"対象外")</f>
         <v>0</v>
       </c>
       <c r="I1" s="130" t="str">
-        <f>IF(H1=23,"テスト完了","テスト漏れ")</f>
+        <f>IF($H$1=MAX($A$4:A500),"テスト完了","テスト漏れ")</f>
         <v>テスト漏れ</v>
       </c>
       <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
+      <c r="K1" s="72" t="s">
+        <v>423</v>
+      </c>
+      <c r="L1" s="128">
+        <f>COUNTIF($G$4:G500,"NG")</f>
+        <v>0</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>424</v>
+      </c>
+      <c r="N1" s="128">
+        <f>COUNTIF($K$4:$K500,"OK")+COUNTIF($K$4:$K500,"NG")+COUNTIF($K$4:$K500,"対象外")</f>
+        <v>0</v>
+      </c>
+      <c r="O1" s="182" t="str">
+        <f>IF($L$1=$N$1,"テスト完了","テスト漏れ")</f>
+        <v>テスト完了</v>
+      </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -7776,7 +8203,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G17" s="125"/>
       <c r="H17" s="52"/>
@@ -7890,7 +8317,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="80" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G21" s="125"/>
       <c r="H21" s="4"/>
@@ -7920,7 +8347,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="80" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G22" s="125"/>
       <c r="H22" s="4"/>
@@ -7950,7 +8377,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="80" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G23" s="125"/>
       <c r="H23" s="4"/>
@@ -7978,7 +8405,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="80" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G24" s="125"/>
       <c r="H24" s="4"/>
@@ -8008,7 +8435,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G25" s="125"/>
       <c r="H25" s="52"/>
@@ -8168,18 +8595,32 @@
         <v>374</v>
       </c>
       <c r="H1" s="128">
-        <f>COUNTA(G4:G56)</f>
+        <f>COUNTIF($G$4:$G500,"OK")+COUNTIF($G$4:$G500,"NG")+COUNTIF($G$4:$G500,"対象外")</f>
         <v>0</v>
       </c>
       <c r="I1" s="130" t="str">
-        <f>IF(H1=53,"テスト完了","テスト漏れ")</f>
+        <f>IF($H$1=MAX($A$4:A500),"テスト完了","テスト漏れ")</f>
         <v>テスト漏れ</v>
       </c>
       <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
+      <c r="K1" s="72" t="s">
+        <v>423</v>
+      </c>
+      <c r="L1" s="128">
+        <f>COUNTIF($G$4:G500,"NG")</f>
+        <v>0</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>424</v>
+      </c>
+      <c r="N1" s="128">
+        <f>COUNTIF($K$4:$K500,"OK")+COUNTIF($K$4:$K500,"NG")+COUNTIF($K$4:$K500,"対象外")</f>
+        <v>0</v>
+      </c>
+      <c r="O1" s="182" t="str">
+        <f>IF($L$1=$N$1,"テスト完了","テスト漏れ")</f>
+        <v>テスト完了</v>
+      </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -8589,7 +9030,7 @@
       <c r="E16" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="143" t="s">
+      <c r="F16" s="141" t="s">
         <v>50</v>
       </c>
       <c r="G16" s="125"/>
@@ -8799,7 +9240,7 @@
       <c r="E24" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="143" t="s">
+      <c r="F24" s="141" t="s">
         <v>58</v>
       </c>
       <c r="G24" s="125"/>
@@ -9587,7 +10028,7 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9678,6 +10119,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D31:D32"/>
@@ -9694,16 +10145,6 @@
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="C15:C52"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="D15:D16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -9755,18 +10196,32 @@
         <v>374</v>
       </c>
       <c r="H1" s="128">
-        <f>COUNTA(G4:G51)</f>
+        <f>COUNTIF($G$4:$G500,"OK")+COUNTIF($G$4:$G500,"NG")+COUNTIF($G$4:$G500,"対象外")</f>
         <v>0</v>
       </c>
       <c r="I1" s="130" t="str">
-        <f>IF(H1=48,"テスト完了","テスト漏れ")</f>
+        <f>IF($H$1=MAX($A$4:A500),"テスト完了","テスト漏れ")</f>
         <v>テスト漏れ</v>
       </c>
       <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
+      <c r="K1" s="72" t="s">
+        <v>423</v>
+      </c>
+      <c r="L1" s="128">
+        <f>COUNTIF($G$4:G500,"NG")</f>
+        <v>0</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>424</v>
+      </c>
+      <c r="N1" s="128">
+        <f>COUNTIF($K$4:$K500,"OK")+COUNTIF($K$4:$K500,"NG")+COUNTIF($K$4:$K500,"対象外")</f>
+        <v>0</v>
+      </c>
+      <c r="O1" s="182" t="str">
+        <f>IF($L$1=$N$1,"テスト完了","テスト漏れ")</f>
+        <v>テスト完了</v>
+      </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -10971,8 +11426,8 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
-      <c r="O48" s="183" t="s">
-        <v>420</v>
+      <c r="O48" s="143" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
@@ -11057,14 +11512,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="C3:D3"/>
@@ -11081,6 +11528,14 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -11132,18 +11587,32 @@
         <v>374</v>
       </c>
       <c r="H1" s="128">
-        <f>COUNTA(G4:G26)</f>
+        <f>COUNTIF($G$4:$G500,"OK")+COUNTIF($G$4:$G500,"NG")+COUNTIF($G$4:$G500,"対象外")</f>
         <v>0</v>
       </c>
       <c r="I1" s="130" t="str">
-        <f>IF(H1=23,"テスト完了","テスト漏れ")</f>
+        <f>IF($H$1=MAX($A$4:A500),"テスト完了","テスト漏れ")</f>
         <v>テスト漏れ</v>
       </c>
       <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
+      <c r="K1" s="72" t="s">
+        <v>423</v>
+      </c>
+      <c r="L1" s="128">
+        <f>COUNTIF($G$4:G500,"NG")</f>
+        <v>0</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>424</v>
+      </c>
+      <c r="N1" s="128">
+        <f>COUNTIF($K$4:$K500,"OK")+COUNTIF($K$4:$K500,"NG")+COUNTIF($K$4:$K500,"対象外")</f>
+        <v>0</v>
+      </c>
+      <c r="O1" s="182" t="str">
+        <f>IF($L$1=$N$1,"テスト完了","テスト漏れ")</f>
+        <v>テスト完了</v>
+      </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -11892,7 +12361,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" sqref="A1:C1"/>
@@ -11927,18 +12396,32 @@
         <v>374</v>
       </c>
       <c r="H1" s="128">
-        <f>COUNTA(G4:G33)</f>
+        <f>COUNTIF($G$4:$G500,"OK")+COUNTIF($G$4:$G500,"NG")+COUNTIF($G$4:$G500,"対象外")</f>
         <v>0</v>
       </c>
       <c r="I1" s="130" t="str">
-        <f>IF(H1=30,"テスト完了","テスト漏れ")</f>
+        <f>IF($H$1=MAX($A$4:A500),"テスト完了","テスト漏れ")</f>
         <v>テスト漏れ</v>
       </c>
       <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
+      <c r="K1" s="72" t="s">
+        <v>423</v>
+      </c>
+      <c r="L1" s="128">
+        <f>COUNTIF($G$4:G500,"NG")</f>
+        <v>0</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>424</v>
+      </c>
+      <c r="N1" s="128">
+        <f>COUNTIF($K$4:$K500,"OK")+COUNTIF($K$4:$K500,"NG")+COUNTIF($K$4:$K500,"対象外")</f>
+        <v>0</v>
+      </c>
+      <c r="O1" s="182" t="str">
+        <f>IF($L$1=$N$1,"テスト完了","テスト漏れ")</f>
+        <v>テスト完了</v>
+      </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -12327,8 +12810,8 @@
       <c r="D16" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="141" t="s">
-        <v>402</v>
+      <c r="E16" s="139" t="s">
+        <v>401</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>228</v>
@@ -12692,7 +13175,7 @@
       <c r="M30" s="29"/>
       <c r="N30" s="29"/>
       <c r="O30" s="54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
@@ -12842,18 +13325,32 @@
         <v>374</v>
       </c>
       <c r="H1" s="128">
-        <f>COUNTA(G4:G37)</f>
+        <f>COUNTIF($G$4:$G500,"OK")+COUNTIF($G$4:$G500,"NG")+COUNTIF($G$4:$G500,"対象外")</f>
         <v>0</v>
       </c>
       <c r="I1" s="130" t="str">
-        <f>IF(H1=34,"テスト完了","テスト漏れ")</f>
+        <f>IF($H$1=MAX($A$4:A500),"テスト完了","テスト漏れ")</f>
         <v>テスト漏れ</v>
       </c>
       <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
+      <c r="K1" s="72" t="s">
+        <v>423</v>
+      </c>
+      <c r="L1" s="128">
+        <f>COUNTIF($G$4:G500,"NG")</f>
+        <v>0</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>424</v>
+      </c>
+      <c r="N1" s="128">
+        <f>COUNTIF($K$4:$K500,"OK")+COUNTIF($K$4:$K500,"NG")+COUNTIF($K$4:$K500,"対象外")</f>
+        <v>0</v>
+      </c>
+      <c r="O1" s="182" t="str">
+        <f>IF($L$1=$N$1,"テスト完了","テスト漏れ")</f>
+        <v>テスト完了</v>
+      </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -13268,8 +13765,8 @@
       <c r="D17" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="141" t="s">
-        <v>402</v>
+      <c r="E17" s="139" t="s">
+        <v>401</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>13</v>
@@ -13492,7 +13989,7 @@
       <c r="D26" s="151" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="141" t="s">
+      <c r="E26" s="139" t="s">
         <v>227</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -13546,7 +14043,7 @@
         <v>125</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G28" s="125"/>
       <c r="H28" s="4"/>
@@ -13644,7 +14141,7 @@
         <v>279</v>
       </c>
       <c r="F32" s="81" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G32" s="125"/>
       <c r="H32" s="4"/>
@@ -13666,7 +14163,7 @@
       <c r="D33" s="158"/>
       <c r="E33" s="152"/>
       <c r="F33" s="52" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -13703,8 +14200,8 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
-      <c r="O34" s="183" t="s">
-        <v>421</v>
+      <c r="O34" s="143" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
@@ -13789,6 +14286,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C13:C33"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="D31:D33"/>
     <mergeCell ref="A1:C1"/>
@@ -13805,7 +14303,6 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C13:C33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -13884,7 +14381,7 @@
         <v>287</v>
       </c>
       <c r="D4" s="176" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E4" s="109" t="s">
         <v>305</v>
@@ -13977,7 +14474,7 @@
         <v>288</v>
       </c>
       <c r="D12" s="168" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E12" s="115" t="s">
         <v>306</v>
@@ -14088,7 +14585,7 @@
         <v>288</v>
       </c>
       <c r="D20" s="176" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E20" s="109" t="s">
         <v>307</v>
@@ -14181,13 +14678,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="162" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C28" s="165" t="s">
         <v>302</v>
       </c>
       <c r="D28" s="168" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E28" s="115" t="s">
         <v>315</v>
@@ -14286,7 +14783,7 @@
         <v>301</v>
       </c>
       <c r="D36" s="168" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E36" s="115" t="s">
         <v>352</v>
@@ -14318,7 +14815,7 @@
       <c r="B38" s="163"/>
       <c r="C38" s="166"/>
       <c r="D38" s="169"/>
-      <c r="E38" s="142"/>
+      <c r="E38" s="140"/>
       <c r="F38" s="29"/>
       <c r="G38" s="54"/>
     </row>
@@ -14379,7 +14876,7 @@
         <v>301</v>
       </c>
       <c r="D44" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E44" s="111" t="s">
         <v>357</v>
@@ -14405,7 +14902,7 @@
       <c r="B46" s="163"/>
       <c r="C46" s="166"/>
       <c r="D46" s="169"/>
-      <c r="E46" s="142"/>
+      <c r="E46" s="140"/>
       <c r="F46" s="29"/>
       <c r="G46" s="54"/>
     </row>
@@ -14466,7 +14963,7 @@
         <v>301</v>
       </c>
       <c r="D52" s="168" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E52" s="115" t="s">
         <v>357</v>
@@ -14483,7 +14980,7 @@
       <c r="B53" s="163"/>
       <c r="C53" s="166"/>
       <c r="D53" s="169"/>
-      <c r="E53" s="142"/>
+      <c r="E53" s="140"/>
       <c r="F53" s="29"/>
       <c r="G53" s="54"/>
     </row>
@@ -14553,7 +15050,7 @@
         <v>300</v>
       </c>
       <c r="D60" s="176" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E60" s="109" t="s">
         <v>349</v>
@@ -14652,7 +15149,7 @@
         <v>300</v>
       </c>
       <c r="D68" s="168" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E68" s="115" t="s">
         <v>349</v>
@@ -14751,7 +15248,7 @@
         <v>300</v>
       </c>
       <c r="D76" s="176" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E76" s="109" t="s">
         <v>349</v>
@@ -14850,7 +15347,7 @@
         <v>325</v>
       </c>
       <c r="D84" s="168" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E84" s="115" t="s">
         <v>328</v>
@@ -14949,7 +15446,7 @@
         <v>325</v>
       </c>
       <c r="D92" s="176" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E92" s="109" t="s">
         <v>318</v>
@@ -15054,7 +15551,7 @@
         <v>304</v>
       </c>
       <c r="D100" s="168" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E100" s="115" t="s">
         <v>341</v>
@@ -15153,13 +15650,13 @@
         <v>14</v>
       </c>
       <c r="B108" s="172" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C108" s="174" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D108" s="176" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E108" s="111" t="s">
         <v>370</v>
@@ -15226,7 +15723,7 @@
       <c r="G114" s="94"/>
     </row>
     <row r="115" spans="1:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="171"/>
+      <c r="A115" s="179"/>
       <c r="B115" s="173"/>
       <c r="C115" s="175"/>
       <c r="D115" s="177"/>
@@ -15240,13 +15737,13 @@
         <v>15</v>
       </c>
       <c r="B116" s="162" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C116" s="165" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D116" s="168" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E116" s="115" t="s">
         <v>345</v>
@@ -15272,7 +15769,7 @@
       <c r="B118" s="163"/>
       <c r="C118" s="166"/>
       <c r="D118" s="169"/>
-      <c r="E118" s="142"/>
+      <c r="E118" s="140"/>
       <c r="F118" s="29"/>
       <c r="G118" s="54"/>
     </row>
@@ -15322,18 +15819,18 @@
       <c r="G123" s="95"/>
     </row>
     <row r="124" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="181">
+      <c r="A124" s="171">
         <f t="shared" ref="A124" si="14">(ROW()/4+1)/2</f>
         <v>16</v>
       </c>
       <c r="B124" s="172" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C124" s="174" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D124" s="176" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E124" s="109" t="s">
         <v>354</v>
@@ -15342,7 +15839,7 @@
         <v>361</v>
       </c>
       <c r="G124" s="110" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -15359,7 +15856,7 @@
       <c r="B126" s="163"/>
       <c r="C126" s="166"/>
       <c r="D126" s="169"/>
-      <c r="E126" s="142"/>
+      <c r="E126" s="140"/>
       <c r="F126" s="29"/>
       <c r="G126" s="54"/>
     </row>
@@ -15400,7 +15897,7 @@
       <c r="G130" s="94"/>
     </row>
     <row r="131" spans="1:7" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="171"/>
+      <c r="A131" s="179"/>
       <c r="B131" s="173"/>
       <c r="C131" s="175"/>
       <c r="D131" s="177"/>
@@ -15408,27 +15905,27 @@
       <c r="F131" s="102"/>
       <c r="G131" s="114"/>
     </row>
-    <row r="132" spans="1:7" s="182" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:7" s="142" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="159">
         <f t="shared" ref="A132" si="15">(ROW()/4+1)/2</f>
         <v>17</v>
       </c>
       <c r="B132" s="162" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C132" s="165" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D132" s="168" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E132" s="115"/>
       <c r="F132" s="103"/>
       <c r="G132" s="116" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" s="182" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="142" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="160"/>
       <c r="B133" s="163"/>
       <c r="C133" s="166"/>
@@ -15437,7 +15934,7 @@
       <c r="F133" s="28"/>
       <c r="G133" s="94"/>
     </row>
-    <row r="134" spans="1:7" s="182" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:7" s="142" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="160"/>
       <c r="B134" s="163"/>
       <c r="C134" s="166"/>
@@ -15446,7 +15943,7 @@
       <c r="F134" s="28"/>
       <c r="G134" s="94"/>
     </row>
-    <row r="135" spans="1:7" s="182" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:7" s="142" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="160"/>
       <c r="B135" s="163"/>
       <c r="C135" s="166"/>
@@ -15455,7 +15952,7 @@
       <c r="F135" s="28"/>
       <c r="G135" s="94"/>
     </row>
-    <row r="136" spans="1:7" s="182" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:7" s="142" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="160"/>
       <c r="B136" s="163"/>
       <c r="C136" s="166"/>
@@ -15464,7 +15961,7 @@
       <c r="F136" s="28"/>
       <c r="G136" s="94"/>
     </row>
-    <row r="137" spans="1:7" s="182" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:7" s="142" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="160"/>
       <c r="B137" s="163"/>
       <c r="C137" s="166"/>
@@ -15473,7 +15970,7 @@
       <c r="F137" s="28"/>
       <c r="G137" s="94"/>
     </row>
-    <row r="138" spans="1:7" s="182" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:7" s="142" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="160"/>
       <c r="B138" s="163"/>
       <c r="C138" s="166"/>
@@ -15482,7 +15979,7 @@
       <c r="F138" s="29"/>
       <c r="G138" s="94"/>
     </row>
-    <row r="139" spans="1:7" s="182" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" s="142" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A139" s="161"/>
       <c r="B139" s="164"/>
       <c r="C139" s="167"/>
@@ -15491,27 +15988,27 @@
       <c r="F139" s="34"/>
       <c r="G139" s="95"/>
     </row>
-    <row r="140" spans="1:7" s="182" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="181">
+    <row r="140" spans="1:7" s="142" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="171">
         <f t="shared" ref="A140" si="16">(ROW()/4+1)/2</f>
         <v>18</v>
       </c>
       <c r="B140" s="162" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C140" s="165" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D140" s="168" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E140" s="109"/>
       <c r="F140" s="100"/>
       <c r="G140" s="116" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" s="182" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" s="142" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="160"/>
       <c r="B141" s="163"/>
       <c r="C141" s="166"/>
@@ -15520,7 +16017,7 @@
       <c r="F141" s="28"/>
       <c r="G141" s="94"/>
     </row>
-    <row r="142" spans="1:7" s="182" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:7" s="142" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="160"/>
       <c r="B142" s="163"/>
       <c r="C142" s="166"/>
@@ -15529,7 +16026,7 @@
       <c r="F142" s="28"/>
       <c r="G142" s="94"/>
     </row>
-    <row r="143" spans="1:7" s="182" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:7" s="142" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="160"/>
       <c r="B143" s="163"/>
       <c r="C143" s="166"/>
@@ -15538,7 +16035,7 @@
       <c r="F143" s="28"/>
       <c r="G143" s="94"/>
     </row>
-    <row r="144" spans="1:7" s="182" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:7" s="142" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="160"/>
       <c r="B144" s="163"/>
       <c r="C144" s="166"/>
@@ -15547,7 +16044,7 @@
       <c r="F144" s="28"/>
       <c r="G144" s="94"/>
     </row>
-    <row r="145" spans="1:7" s="182" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:7" s="142" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="160"/>
       <c r="B145" s="163"/>
       <c r="C145" s="166"/>
@@ -15556,7 +16053,7 @@
       <c r="F145" s="28"/>
       <c r="G145" s="94"/>
     </row>
-    <row r="146" spans="1:7" s="182" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:7" s="142" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="160"/>
       <c r="B146" s="163"/>
       <c r="C146" s="166"/>
@@ -15565,7 +16062,7 @@
       <c r="F146" s="29"/>
       <c r="G146" s="94"/>
     </row>
-    <row r="147" spans="1:7" s="182" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" s="142" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A147" s="161"/>
       <c r="B147" s="164"/>
       <c r="C147" s="167"/>
@@ -15642,45 +16139,24 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A132:A139"/>
-    <mergeCell ref="B132:B139"/>
-    <mergeCell ref="C132:C139"/>
-    <mergeCell ref="D132:D139"/>
-    <mergeCell ref="A140:A147"/>
-    <mergeCell ref="B140:B147"/>
-    <mergeCell ref="C140:C147"/>
-    <mergeCell ref="D140:D147"/>
-    <mergeCell ref="C84:C91"/>
-    <mergeCell ref="D84:D91"/>
-    <mergeCell ref="B76:B83"/>
-    <mergeCell ref="C76:C83"/>
-    <mergeCell ref="D76:D83"/>
-    <mergeCell ref="C60:C67"/>
-    <mergeCell ref="D60:D67"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C68:C75"/>
-    <mergeCell ref="D68:D75"/>
-    <mergeCell ref="C44:C51"/>
-    <mergeCell ref="D44:D51"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="C52:C59"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="D28:D35"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="C36:C43"/>
-    <mergeCell ref="D36:D43"/>
-    <mergeCell ref="B44:B51"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="D52:D59"/>
-    <mergeCell ref="D4:D11"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="A124:A131"/>
+    <mergeCell ref="B124:B131"/>
+    <mergeCell ref="C124:C131"/>
+    <mergeCell ref="D124:D131"/>
+    <mergeCell ref="A108:A115"/>
+    <mergeCell ref="B108:B115"/>
+    <mergeCell ref="C108:C115"/>
+    <mergeCell ref="D108:D115"/>
+    <mergeCell ref="A116:A123"/>
+    <mergeCell ref="B116:B123"/>
+    <mergeCell ref="C116:C123"/>
+    <mergeCell ref="D116:D123"/>
+    <mergeCell ref="C92:C99"/>
+    <mergeCell ref="D92:D99"/>
+    <mergeCell ref="A100:A107"/>
+    <mergeCell ref="B100:B107"/>
+    <mergeCell ref="C100:C107"/>
+    <mergeCell ref="D100:D107"/>
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="A12:A19"/>
     <mergeCell ref="A1:B1"/>
@@ -15697,24 +16173,45 @@
     <mergeCell ref="A68:A75"/>
     <mergeCell ref="B60:B67"/>
     <mergeCell ref="B84:B91"/>
-    <mergeCell ref="C92:C99"/>
-    <mergeCell ref="D92:D99"/>
-    <mergeCell ref="A100:A107"/>
-    <mergeCell ref="B100:B107"/>
-    <mergeCell ref="C100:C107"/>
-    <mergeCell ref="D100:D107"/>
-    <mergeCell ref="A124:A131"/>
-    <mergeCell ref="B124:B131"/>
-    <mergeCell ref="C124:C131"/>
-    <mergeCell ref="D124:D131"/>
-    <mergeCell ref="A108:A115"/>
-    <mergeCell ref="B108:B115"/>
-    <mergeCell ref="C108:C115"/>
-    <mergeCell ref="D108:D115"/>
-    <mergeCell ref="A116:A123"/>
-    <mergeCell ref="B116:B123"/>
-    <mergeCell ref="C116:C123"/>
-    <mergeCell ref="D116:D123"/>
+    <mergeCell ref="D4:D11"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="D44:D51"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="C52:C59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="D28:D35"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="D36:D43"/>
+    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="D52:D59"/>
+    <mergeCell ref="C60:C67"/>
+    <mergeCell ref="D60:D67"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="D68:D75"/>
+    <mergeCell ref="C84:C91"/>
+    <mergeCell ref="D84:D91"/>
+    <mergeCell ref="B76:B83"/>
+    <mergeCell ref="C76:C83"/>
+    <mergeCell ref="D76:D83"/>
+    <mergeCell ref="A132:A139"/>
+    <mergeCell ref="B132:B139"/>
+    <mergeCell ref="C132:C139"/>
+    <mergeCell ref="D132:D139"/>
+    <mergeCell ref="A140:A147"/>
+    <mergeCell ref="B140:B147"/>
+    <mergeCell ref="C140:C147"/>
+    <mergeCell ref="D140:D147"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
